--- a/classfiers/mega/welm/WELM_tanh_results.xlsx
+++ b/classfiers/mega/welm/WELM_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8326180257510729</v>
+        <v>0.8075117370892019</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7553528945281522</v>
+        <v>0.6269525493663425</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7811158798283262</v>
+        <v>0.7652582159624414</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5819672131147541</v>
+        <v>0.6751893939393938</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7811158798283262</v>
+        <v>0.7783018867924528</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2983193277310924</v>
+        <v>0.6394584139264989</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8232758620689655</v>
+        <v>0.8254716981132075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2040816326530612</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3278688524590165</v>
+        <v>0.2745098039215686</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7750083640013382</v>
+        <v>0.8144344601340751</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.853448275862069</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3877551020408163</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5277777777777779</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8243559718969554</v>
+        <v>0.5320028011204482</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8143147846677519</v>
+        <v>0.7956860660820267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1183673469387755</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1711293260473589</v>
+        <v>0.05490196078431372</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6470007542544585</v>
+        <v>0.6576075236973516</v>
       </c>
     </row>
   </sheetData>
